--- a/设备对应device.xlsx
+++ b/设备对应device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="231">
   <si>
     <t>品牌</t>
   </si>
@@ -48,6 +48,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>刘海高度</t>
+  </si>
+  <si>
     <t>Motorola</t>
   </si>
   <si>
@@ -151,6 +154,12 @@
     <t>1GB</t>
   </si>
   <si>
+    <t>Nexus 7</t>
+  </si>
+  <si>
+    <t>0a5fa282</t>
+  </si>
+  <si>
     <t>Oppo</t>
   </si>
   <si>
@@ -395,6 +404,12 @@
     <t>海思 麒麟 910</t>
   </si>
   <si>
+    <t>HONOR H30-L01</t>
+  </si>
+  <si>
+    <t>BY2QUX149G004958</t>
+  </si>
+  <si>
     <t>华为 荣耀 V40</t>
   </si>
   <si>
@@ -1017,6 +1032,12 @@
   </si>
   <si>
     <t>Nvidia Tegra K1 ARM Cortex-A15（四核、1.8GHz）</t>
+  </si>
+  <si>
+    <t>MI PAD</t>
+  </si>
+  <si>
+    <t>596781BD</t>
   </si>
 </sst>
 </file>
@@ -1025,9 +1046,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1048,30 +1069,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,6 +1086,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,23 +1107,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1125,39 +1162,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1169,24 +1184,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1201,7 +1222,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,25 +1294,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,145 +1402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,6 +1413,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1410,26 +1440,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,21 +1484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1484,11 +1499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,10 +1521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1512,133 +1533,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1999,10 +2020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2015,7 +2036,7 @@
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2046,1120 +2067,1249 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K2" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K4" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K5" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K6" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K9" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:11">
+      <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J11" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:11">
+      <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K14" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K15" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J18" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K19" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J20" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K20" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J21" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J22" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K22" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J23" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J24" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J25" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K25" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J26" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J27" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J28" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K28" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J30" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J32" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="J33" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K33" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J35" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A36" s="2">
         <v>360</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J36" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
         <v>0</v>
       </c>
     </row>
